--- a/data/trans_bre/P1438_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1438_2023-Dificultad-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>5.114645018796011</v>
+        <v>5.114645018796009</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.6126947085890452</v>
+        <v>0.6126947085890448</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.520004345192281</v>
+        <v>1.424039283159476</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.1163645046322269</v>
+        <v>0.1366993503947509</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.348363272294987</v>
+        <v>7.912021291323243</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1.266043968954788</v>
+        <v>1.22050507270437</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>4.881781119349005</v>
+        <v>4.881781119349004</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.9415937054346863</v>
+        <v>0.941593705434686</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.061913679742158</v>
+        <v>3.029399375403489</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4766781907250318</v>
+        <v>0.4704180241324306</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.807561494562207</v>
+        <v>6.752913074044503</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.648672582619342</v>
+        <v>1.575459682461317</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2.88927755722495</v>
+        <v>2.889277557224951</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.8951843826077969</v>
+        <v>0.8951843826077971</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.3999345268366</v>
+        <v>1.349954943529623</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.3433353282880467</v>
+        <v>0.309629323047111</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.438439603606125</v>
+        <v>4.34496398008015</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.676154330498122</v>
+        <v>1.661914382998243</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>2.414183761552622</v>
+        <v>2.414183761552623</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.6411319682603864</v>
+        <v>0.6411319682603868</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7963855027714477</v>
+        <v>0.7297379737053185</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1359653642396149</v>
+        <v>0.1487434491774651</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.091172730996051</v>
+        <v>4.318280141866492</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.406299021980665</v>
+        <v>1.49502004603886</v>
       </c>
     </row>
     <row r="16">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.850904695705395</v>
+        <v>2.891613824619025</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.5397962945719085</v>
+        <v>0.5495042648213557</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.824542783430093</v>
+        <v>4.88164073903418</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1.149510840310135</v>
+        <v>1.217244050486006</v>
       </c>
     </row>
     <row r="19">
